--- a/testdata/Scenario1_Output.xlsx
+++ b/testdata/Scenario1_Output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="8">
   <si>
     <t>Company Name</t>
   </si>

--- a/testdata/Scenario1_Output.xlsx
+++ b/testdata/Scenario1_Output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Company Name</t>
   </si>

--- a/testdata/Scenario1_Output.xlsx
+++ b/testdata/Scenario1_Output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>Company Name</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>₹2,089</t>
+  </si>
+  <si>
+    <t>Insurance Company Name</t>
   </si>
 </sst>
 </file>
@@ -88,7 +91,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s" s="0">
         <v>4</v>

--- a/testdata/Scenario1_Output.xlsx
+++ b/testdata/Scenario1_Output.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Company Name</t>
+    <t>Insurance Company Name</t>
   </si>
   <si>
     <t>Reliance</t>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>₹2,089</t>
-  </si>
-  <si>
-    <t>Insurance Company Name</t>
   </si>
 </sst>
 </file>
@@ -91,7 +88,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
         <v>4</v>

--- a/testdata/Scenario1_Output.xlsx
+++ b/testdata/Scenario1_Output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>Insurance Company Name</t>
   </si>

--- a/testdata/Scenario1_Output.xlsx
+++ b/testdata/Scenario1_Output.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
-    <t>Insurance Company Name</t>
+    <t>Company Name</t>
   </si>
   <si>
     <t>Reliance</t>

--- a/testdata/Scenario1_Output.xlsx
+++ b/testdata/Scenario1_Output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="9">
   <si>
     <t>Company Name</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>₹2,089</t>
+  </si>
+  <si>
+    <t>Insurance Company Name</t>
   </si>
 </sst>
 </file>
@@ -88,7 +91,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s" s="0">
         <v>4</v>

--- a/testdata/Scenario1_Output.xlsx
+++ b/testdata/Scenario1_Output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="9">
   <si>
     <t>Company Name</t>
   </si>
@@ -91,7 +91,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
         <v>4</v>
